--- a/AAII_Financials/Yearly/ONON_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ONON_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>460800</v>
+        <v>455100</v>
       </c>
       <c r="E8" s="3">
-        <v>289400</v>
+        <v>285800</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -739,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>210400</v>
+        <v>207800</v>
       </c>
       <c r="E9" s="3">
-        <v>134300</v>
+        <v>132700</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -766,10 +766,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>250400</v>
+        <v>247300</v>
       </c>
       <c r="E10" s="3">
-        <v>155100</v>
+        <v>153100</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -887,10 +887,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="E15" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>479300</v>
+        <v>473300</v>
       </c>
       <c r="E17" s="3">
-        <v>283200</v>
+        <v>279700</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-18500</v>
+        <v>-18300</v>
       </c>
       <c r="E18" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -991,10 +991,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="E20" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1018,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-12400</v>
+        <v>-12100</v>
       </c>
       <c r="E21" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1072,7 +1072,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-26500</v>
+        <v>-26200</v>
       </c>
       <c r="E23" s="3">
         <v>3400</v>
@@ -1102,7 +1102,7 @@
         <v>3300</v>
       </c>
       <c r="E24" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1153,7 +1153,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-29800</v>
+        <v>-29500</v>
       </c>
       <c r="E26" s="3">
         <v>-1600</v>
@@ -1180,7 +1180,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-29800</v>
+        <v>-29500</v>
       </c>
       <c r="E27" s="3">
         <v>-1600</v>
@@ -1315,10 +1315,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="E32" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1342,7 +1342,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-29800</v>
+        <v>-29500</v>
       </c>
       <c r="E33" s="3">
         <v>-1600</v>
@@ -1396,7 +1396,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-29800</v>
+        <v>-29500</v>
       </c>
       <c r="E35" s="3">
         <v>-1600</v>
@@ -1481,10 +1481,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>98200</v>
+        <v>97000</v>
       </c>
       <c r="E41" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1508,7 +1508,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>18600</v>
+        <v>18300</v>
       </c>
       <c r="E42" s="3">
         <v>6400</v>
@@ -1535,10 +1535,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>69400</v>
+        <v>68600</v>
       </c>
       <c r="E43" s="3">
-        <v>48900</v>
+        <v>48300</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1562,10 +1562,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>111500</v>
+        <v>110100</v>
       </c>
       <c r="E44" s="3">
-        <v>48300</v>
+        <v>47700</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1589,10 +1589,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="E45" s="3">
-        <v>13700</v>
+        <v>13500</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>305800</v>
+        <v>302000</v>
       </c>
       <c r="E46" s="3">
-        <v>130200</v>
+        <v>128600</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>43000</v>
+        <v>42500</v>
       </c>
       <c r="E48" s="3">
-        <v>17000</v>
+        <v>16800</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1697,10 +1697,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>59200</v>
+        <v>58500</v>
       </c>
       <c r="E49" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1778,7 +1778,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="E52" s="3">
         <v>2000</v>
@@ -1832,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>414500</v>
+        <v>409300</v>
       </c>
       <c r="E54" s="3">
-        <v>155600</v>
+        <v>153700</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1885,10 +1885,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>45000</v>
+        <v>44500</v>
       </c>
       <c r="E57" s="3">
-        <v>17800</v>
+        <v>17600</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1915,7 +1915,7 @@
         <v>4900</v>
       </c>
       <c r="E58" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -1939,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>43600</v>
+        <v>43100</v>
       </c>
       <c r="E59" s="3">
-        <v>34700</v>
+        <v>34200</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1966,10 +1966,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>93600</v>
+        <v>92400</v>
       </c>
       <c r="E60" s="3">
-        <v>70800</v>
+        <v>69900</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -1993,10 +1993,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20800</v>
+        <v>20500</v>
       </c>
       <c r="E61" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>34600</v>
+        <v>34200</v>
       </c>
       <c r="E62" s="3">
-        <v>11500</v>
+        <v>11300</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2128,10 +2128,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>148900</v>
+        <v>147100</v>
       </c>
       <c r="E66" s="3">
-        <v>85800</v>
+        <v>84800</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2276,10 +2276,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>78700</v>
+        <v>77800</v>
       </c>
       <c r="E72" s="3">
-        <v>24400</v>
+        <v>24100</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>265500</v>
+        <v>262200</v>
       </c>
       <c r="E76" s="3">
-        <v>69800</v>
+        <v>68900</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2470,7 +2470,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-29800</v>
+        <v>-29500</v>
       </c>
       <c r="E81" s="3">
         <v>-1600</v>
@@ -2510,10 +2510,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="E83" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-16000</v>
+        <v>-15800</v>
       </c>
       <c r="E89" s="3">
-        <v>-5700</v>
+        <v>-5600</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2712,10 +2712,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11900</v>
+        <v>-11800</v>
       </c>
       <c r="E91" s="3">
-        <v>-8100</v>
+        <v>-8000</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -2793,10 +2793,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-20200</v>
+        <v>-19900</v>
       </c>
       <c r="E94" s="3">
-        <v>-10300</v>
+        <v>-10200</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2941,7 +2941,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>135200</v>
+        <v>133500</v>
       </c>
       <c r="E100" s="3">
         <v>-700</v>
@@ -2995,10 +2995,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>98000</v>
+        <v>96800</v>
       </c>
       <c r="E102" s="3">
-        <v>-16900</v>
+        <v>-16700</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ONON_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ONON_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
   <si>
     <t>ONON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,34 +665,34 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,20 +705,23 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>455100</v>
+        <v>722500</v>
       </c>
       <c r="E8" s="3">
-        <v>285800</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+        <v>424100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>266300</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -732,20 +735,23 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>207800</v>
+        <v>293500</v>
       </c>
       <c r="E9" s="3">
-        <v>132700</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+        <v>193600</v>
+      </c>
+      <c r="F9" s="3">
+        <v>123600</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -759,20 +765,23 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>247300</v>
+        <v>429000</v>
       </c>
       <c r="E10" s="3">
-        <v>153100</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+        <v>230400</v>
+      </c>
+      <c r="F10" s="3">
+        <v>142700</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,8 +812,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,9 +869,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,20 +899,23 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>10400</v>
+        <v>28600</v>
       </c>
       <c r="E15" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
+        <v>9700</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3700</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -907,9 +929,12 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,19 +943,20 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>473300</v>
+        <v>863200</v>
       </c>
       <c r="E17" s="3">
-        <v>279700</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+        <v>441100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>260700</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -944,20 +970,23 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-18300</v>
+        <v>-140700</v>
       </c>
       <c r="E18" s="3">
-        <v>6100</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+        <v>-17000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>5700</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,19 +1017,20 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6900</v>
+        <v>-14900</v>
       </c>
       <c r="E20" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+        <v>-6400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1900</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1011,20 +1044,23 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-12100</v>
+        <v>-124000</v>
       </c>
       <c r="E21" s="3">
-        <v>9800</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+        <v>-11300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>9100</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1038,20 +1074,23 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="E22" s="3">
-        <v>700</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+        <v>900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>600</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1065,20 +1104,23 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-26200</v>
+        <v>-159100</v>
       </c>
       <c r="E23" s="3">
-        <v>3400</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+        <v>-24400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3100</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1092,20 +1134,23 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3300</v>
+        <v>10600</v>
       </c>
       <c r="E24" s="3">
-        <v>4900</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+        <v>3100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>4600</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,20 +1194,23 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-29500</v>
+        <v>-169700</v>
       </c>
       <c r="E26" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+        <v>-27400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1500</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1173,20 +1224,23 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-29500</v>
+        <v>-169700</v>
       </c>
       <c r="E27" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+        <v>-27400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-1500</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,20 +1374,23 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6900</v>
+        <v>14900</v>
       </c>
       <c r="E32" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+        <v>6400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1900</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1335,20 +1404,23 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-29500</v>
+        <v>-169700</v>
       </c>
       <c r="E33" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+        <v>-27400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-1500</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,20 +1464,23 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-29500</v>
+        <v>-169700</v>
       </c>
       <c r="E35" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>-27400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-1500</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1416,26 +1494,29 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,19 +1560,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>97000</v>
+        <v>651200</v>
       </c>
       <c r="E41" s="3">
-        <v>12800</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>90400</v>
+      </c>
+      <c r="F41" s="3">
+        <v>11900</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1501,20 +1587,23 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>18300</v>
+        <v>30000</v>
       </c>
       <c r="E42" s="3">
-        <v>6400</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>17100</v>
+      </c>
+      <c r="F42" s="3">
+        <v>5900</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1528,20 +1617,23 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>68600</v>
+        <v>125800</v>
       </c>
       <c r="E43" s="3">
-        <v>48300</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>63900</v>
+      </c>
+      <c r="F43" s="3">
+        <v>45000</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1555,20 +1647,23 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>110100</v>
+        <v>133800</v>
       </c>
       <c r="E44" s="3">
-        <v>47700</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+        <v>102600</v>
+      </c>
+      <c r="F44" s="3">
+        <v>44400</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1582,20 +1677,23 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8100</v>
+        <v>21000</v>
       </c>
       <c r="E45" s="3">
-        <v>13500</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>7500</v>
+      </c>
+      <c r="F45" s="3">
+        <v>12600</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1609,20 +1707,23 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>302000</v>
+        <v>961800</v>
       </c>
       <c r="E46" s="3">
-        <v>128600</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>281400</v>
+      </c>
+      <c r="F46" s="3">
+        <v>119800</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1636,9 +1737,12 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1663,20 +1767,23 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>42500</v>
+        <v>211700</v>
       </c>
       <c r="E48" s="3">
-        <v>16800</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>39600</v>
+      </c>
+      <c r="F48" s="3">
+        <v>15700</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1690,20 +1797,23 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>58500</v>
+        <v>57300</v>
       </c>
       <c r="E49" s="3">
-        <v>6300</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>54500</v>
+      </c>
+      <c r="F49" s="3">
+        <v>5900</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,20 +1887,23 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6300</v>
+        <v>2200</v>
       </c>
       <c r="E52" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+        <v>5900</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1800</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,20 +1947,23 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>409300</v>
+        <v>1233000</v>
       </c>
       <c r="E54" s="3">
-        <v>153700</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>381500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>143200</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,19 +2008,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>44500</v>
+        <v>45800</v>
       </c>
       <c r="E57" s="3">
-        <v>17600</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>41400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>16400</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1905,20 +2035,23 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4900</v>
+        <v>13600</v>
       </c>
       <c r="E58" s="3">
-        <v>18100</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>4500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>16800</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1932,20 +2065,23 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>43100</v>
+        <v>145000</v>
       </c>
       <c r="E59" s="3">
-        <v>34200</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>40100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>31900</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1959,20 +2095,23 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>92400</v>
+        <v>204400</v>
       </c>
       <c r="E60" s="3">
-        <v>69900</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>86100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>65100</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1986,20 +2125,23 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20500</v>
+        <v>166700</v>
       </c>
       <c r="E61" s="3">
-        <v>3500</v>
+        <v>19100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2013,20 +2155,23 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>34200</v>
+        <v>15900</v>
       </c>
       <c r="E62" s="3">
-        <v>11300</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>31800</v>
+      </c>
+      <c r="F62" s="3">
+        <v>10600</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,20 +2275,23 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>147100</v>
+        <v>387000</v>
       </c>
       <c r="E66" s="3">
-        <v>84800</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>137100</v>
+      </c>
+      <c r="F66" s="3">
+        <v>79000</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,20 +2439,23 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>77800</v>
+        <v>93700</v>
       </c>
       <c r="E72" s="3">
-        <v>24100</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>72500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>22500</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,20 +2559,23 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>262200</v>
+        <v>845900</v>
       </c>
       <c r="E76" s="3">
-        <v>68900</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>244400</v>
+      </c>
+      <c r="F76" s="3">
+        <v>64200</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,26 +2619,29 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,20 +2654,23 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-29500</v>
+        <v>-169700</v>
       </c>
       <c r="E81" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+        <v>-27400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-1500</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,19 +2701,20 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12900</v>
+        <v>31300</v>
       </c>
       <c r="E83" s="3">
-        <v>5700</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+        <v>12100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>5300</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,20 +2878,23 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-15800</v>
+        <v>16900</v>
       </c>
       <c r="E89" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+        <v>-14700</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-5200</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,19 +2925,20 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11800</v>
+        <v>-24600</v>
       </c>
       <c r="E91" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+        <v>-11000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-7400</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,20 +3012,23 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-19900</v>
+        <v>-36300</v>
       </c>
       <c r="E94" s="3">
-        <v>-10200</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+        <v>-18600</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-9500</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,21 +3176,24 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>133500</v>
+        <v>594100</v>
       </c>
       <c r="E100" s="3">
+        <v>124400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-700</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -2961,21 +3206,24 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -2988,20 +3236,23 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>96800</v>
+        <v>560900</v>
       </c>
       <c r="E102" s="3">
-        <v>-16700</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+        <v>90200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-15600</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ONON_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ONON_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>722500</v>
+        <v>751900</v>
       </c>
       <c r="E8" s="3">
-        <v>424100</v>
+        <v>441300</v>
       </c>
       <c r="F8" s="3">
-        <v>266300</v>
+        <v>277200</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -745,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>293500</v>
+        <v>305400</v>
       </c>
       <c r="E9" s="3">
-        <v>193600</v>
+        <v>201500</v>
       </c>
       <c r="F9" s="3">
-        <v>123600</v>
+        <v>128700</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -775,13 +775,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>429000</v>
+        <v>446500</v>
       </c>
       <c r="E10" s="3">
-        <v>230400</v>
+        <v>239800</v>
       </c>
       <c r="F10" s="3">
-        <v>142700</v>
+        <v>148500</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -909,13 +909,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>28600</v>
+        <v>29700</v>
       </c>
       <c r="E15" s="3">
-        <v>9700</v>
+        <v>10100</v>
       </c>
       <c r="F15" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>863200</v>
+        <v>898300</v>
       </c>
       <c r="E17" s="3">
-        <v>441100</v>
+        <v>459100</v>
       </c>
       <c r="F17" s="3">
-        <v>260700</v>
+        <v>271300</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-140700</v>
+        <v>-146400</v>
       </c>
       <c r="E18" s="3">
-        <v>-17000</v>
+        <v>-17700</v>
       </c>
       <c r="F18" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1024,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-14900</v>
+        <v>-15500</v>
       </c>
       <c r="E20" s="3">
-        <v>-6400</v>
+        <v>-6700</v>
       </c>
       <c r="F20" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-124000</v>
+        <v>-129400</v>
       </c>
       <c r="E21" s="3">
-        <v>-11300</v>
+        <v>-11900</v>
       </c>
       <c r="F21" s="3">
-        <v>9100</v>
+        <v>9500</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1084,13 +1084,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="E22" s="3">
         <v>900</v>
       </c>
       <c r="F22" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-159100</v>
+        <v>-165600</v>
       </c>
       <c r="E23" s="3">
-        <v>-24400</v>
+        <v>-25400</v>
       </c>
       <c r="F23" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1144,13 +1144,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="E24" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F24" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1204,10 +1204,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-169700</v>
+        <v>-176600</v>
       </c>
       <c r="E26" s="3">
-        <v>-27400</v>
+        <v>-28600</v>
       </c>
       <c r="F26" s="3">
         <v>-1500</v>
@@ -1234,10 +1234,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-169700</v>
+        <v>-176600</v>
       </c>
       <c r="E27" s="3">
-        <v>-27400</v>
+        <v>-28600</v>
       </c>
       <c r="F27" s="3">
         <v>-1500</v>
@@ -1384,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>14900</v>
+        <v>15500</v>
       </c>
       <c r="E32" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="F32" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1414,10 +1414,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-169700</v>
+        <v>-176600</v>
       </c>
       <c r="E33" s="3">
-        <v>-27400</v>
+        <v>-28600</v>
       </c>
       <c r="F33" s="3">
         <v>-1500</v>
@@ -1474,10 +1474,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-169700</v>
+        <v>-176600</v>
       </c>
       <c r="E35" s="3">
-        <v>-27400</v>
+        <v>-28600</v>
       </c>
       <c r="F35" s="3">
         <v>-1500</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>651200</v>
+        <v>677700</v>
       </c>
       <c r="E41" s="3">
-        <v>90400</v>
+        <v>94100</v>
       </c>
       <c r="F41" s="3">
-        <v>11900</v>
+        <v>12400</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>30000</v>
+        <v>31200</v>
       </c>
       <c r="E42" s="3">
-        <v>17100</v>
+        <v>17800</v>
       </c>
       <c r="F42" s="3">
-        <v>5900</v>
+        <v>6200</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>125800</v>
+        <v>131000</v>
       </c>
       <c r="E43" s="3">
-        <v>63900</v>
+        <v>66500</v>
       </c>
       <c r="F43" s="3">
-        <v>45000</v>
+        <v>46800</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1657,13 +1657,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>133800</v>
+        <v>139200</v>
       </c>
       <c r="E44" s="3">
-        <v>102600</v>
+        <v>106800</v>
       </c>
       <c r="F44" s="3">
-        <v>44400</v>
+        <v>46200</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21000</v>
+        <v>21900</v>
       </c>
       <c r="E45" s="3">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="F45" s="3">
-        <v>12600</v>
+        <v>13100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>961800</v>
+        <v>1000900</v>
       </c>
       <c r="E46" s="3">
-        <v>281400</v>
+        <v>292900</v>
       </c>
       <c r="F46" s="3">
-        <v>119800</v>
+        <v>124700</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>211700</v>
+        <v>220300</v>
       </c>
       <c r="E48" s="3">
-        <v>39600</v>
+        <v>41200</v>
       </c>
       <c r="F48" s="3">
-        <v>15700</v>
+        <v>16300</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>57300</v>
+        <v>59600</v>
       </c>
       <c r="E49" s="3">
-        <v>54500</v>
+        <v>56700</v>
       </c>
       <c r="F49" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1897,13 +1897,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E52" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="F52" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1233000</v>
+        <v>1283100</v>
       </c>
       <c r="E54" s="3">
-        <v>381500</v>
+        <v>397000</v>
       </c>
       <c r="F54" s="3">
-        <v>143200</v>
+        <v>149000</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>45800</v>
+        <v>47700</v>
       </c>
       <c r="E57" s="3">
-        <v>41400</v>
+        <v>43100</v>
       </c>
       <c r="F57" s="3">
-        <v>16400</v>
+        <v>17000</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13600</v>
+        <v>14100</v>
       </c>
       <c r="E58" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="F58" s="3">
-        <v>16800</v>
+        <v>17500</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>145000</v>
+        <v>150900</v>
       </c>
       <c r="E59" s="3">
-        <v>40100</v>
+        <v>41800</v>
       </c>
       <c r="F59" s="3">
-        <v>31900</v>
+        <v>33200</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>204400</v>
+        <v>212700</v>
       </c>
       <c r="E60" s="3">
-        <v>86100</v>
+        <v>89600</v>
       </c>
       <c r="F60" s="3">
-        <v>65100</v>
+        <v>67800</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>166700</v>
+        <v>173500</v>
       </c>
       <c r="E61" s="3">
-        <v>19100</v>
+        <v>19900</v>
       </c>
       <c r="F61" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15900</v>
+        <v>16500</v>
       </c>
       <c r="E62" s="3">
-        <v>31800</v>
+        <v>33100</v>
       </c>
       <c r="F62" s="3">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>387000</v>
+        <v>402800</v>
       </c>
       <c r="E66" s="3">
-        <v>137100</v>
+        <v>142700</v>
       </c>
       <c r="F66" s="3">
-        <v>79000</v>
+        <v>82200</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>93700</v>
+        <v>97500</v>
       </c>
       <c r="E72" s="3">
-        <v>72500</v>
+        <v>75400</v>
       </c>
       <c r="F72" s="3">
-        <v>22500</v>
+        <v>23400</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>845900</v>
+        <v>880300</v>
       </c>
       <c r="E76" s="3">
-        <v>244400</v>
+        <v>254300</v>
       </c>
       <c r="F76" s="3">
-        <v>64200</v>
+        <v>66800</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,10 +2664,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-169700</v>
+        <v>-176600</v>
       </c>
       <c r="E81" s="3">
-        <v>-27400</v>
+        <v>-28600</v>
       </c>
       <c r="F81" s="3">
         <v>-1500</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>31300</v>
+        <v>32600</v>
       </c>
       <c r="E83" s="3">
-        <v>12100</v>
+        <v>12500</v>
       </c>
       <c r="F83" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>16900</v>
+        <v>17600</v>
       </c>
       <c r="E89" s="3">
-        <v>-14700</v>
+        <v>-15300</v>
       </c>
       <c r="F89" s="3">
-        <v>-5200</v>
+        <v>-5400</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-24600</v>
+        <v>-25600</v>
       </c>
       <c r="E91" s="3">
-        <v>-11000</v>
+        <v>-11400</v>
       </c>
       <c r="F91" s="3">
-        <v>-7400</v>
+        <v>-7700</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-36300</v>
+        <v>-37800</v>
       </c>
       <c r="E94" s="3">
-        <v>-18600</v>
+        <v>-19300</v>
       </c>
       <c r="F94" s="3">
-        <v>-9500</v>
+        <v>-9900</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,10 +3186,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>594100</v>
+        <v>618300</v>
       </c>
       <c r="E100" s="3">
-        <v>124400</v>
+        <v>129500</v>
       </c>
       <c r="F100" s="3">
         <v>-700</v>
@@ -3216,7 +3216,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13800</v>
+        <v>-14400</v>
       </c>
       <c r="E101" s="3">
         <v>-1000</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>560900</v>
+        <v>583700</v>
       </c>
       <c r="E102" s="3">
-        <v>90200</v>
+        <v>93900</v>
       </c>
       <c r="F102" s="3">
-        <v>-15600</v>
+        <v>-16200</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ONON_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ONON_YR_FIN.xlsx
@@ -715,10 +715,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>751900</v>
+        <v>752000</v>
       </c>
       <c r="E8" s="3">
-        <v>441300</v>
+        <v>441400</v>
       </c>
       <c r="F8" s="3">
         <v>277200</v>
@@ -909,7 +909,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>29700</v>
+        <v>29800</v>
       </c>
       <c r="E15" s="3">
         <v>10100</v>
@@ -950,7 +950,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>898300</v>
+        <v>898400</v>
       </c>
       <c r="E17" s="3">
         <v>459100</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-129400</v>
+        <v>-130000</v>
       </c>
       <c r="E21" s="3">
-        <v>-11900</v>
+        <v>-12100</v>
       </c>
       <c r="F21" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1204,7 +1204,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-176600</v>
+        <v>-176700</v>
       </c>
       <c r="E26" s="3">
         <v>-28600</v>
@@ -1234,7 +1234,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-176600</v>
+        <v>-176700</v>
       </c>
       <c r="E27" s="3">
         <v>-28600</v>
@@ -1414,7 +1414,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-176600</v>
+        <v>-176700</v>
       </c>
       <c r="E33" s="3">
         <v>-28600</v>
@@ -1474,7 +1474,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-176600</v>
+        <v>-176700</v>
       </c>
       <c r="E35" s="3">
         <v>-28600</v>
@@ -1567,7 +1567,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>677700</v>
+        <v>677800</v>
       </c>
       <c r="E41" s="3">
         <v>94100</v>
@@ -1717,7 +1717,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1000900</v>
+        <v>1001000</v>
       </c>
       <c r="E46" s="3">
         <v>292900</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1283100</v>
+        <v>1283200</v>
       </c>
       <c r="E54" s="3">
         <v>397000</v>
       </c>
       <c r="F54" s="3">
-        <v>149000</v>
+        <v>149100</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2105,7 +2105,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>212700</v>
+        <v>212800</v>
       </c>
       <c r="E60" s="3">
         <v>89600</v>
@@ -2569,10 +2569,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>880300</v>
+        <v>880400</v>
       </c>
       <c r="E76" s="3">
-        <v>254300</v>
+        <v>254400</v>
       </c>
       <c r="F76" s="3">
         <v>66800</v>
@@ -2664,7 +2664,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-176600</v>
+        <v>-176700</v>
       </c>
       <c r="E81" s="3">
         <v>-28600</v>
@@ -3186,7 +3186,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>618300</v>
+        <v>618400</v>
       </c>
       <c r="E100" s="3">
         <v>129500</v>

--- a/AAII_Financials/Yearly/ONON_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ONON_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>752000</v>
+        <v>777000</v>
       </c>
       <c r="E8" s="3">
-        <v>441400</v>
+        <v>456000</v>
       </c>
       <c r="F8" s="3">
-        <v>277200</v>
+        <v>286400</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -745,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>305400</v>
+        <v>315600</v>
       </c>
       <c r="E9" s="3">
-        <v>201500</v>
+        <v>208200</v>
       </c>
       <c r="F9" s="3">
-        <v>128700</v>
+        <v>133000</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -775,13 +775,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>446500</v>
+        <v>461400</v>
       </c>
       <c r="E10" s="3">
-        <v>239800</v>
+        <v>247800</v>
       </c>
       <c r="F10" s="3">
-        <v>148500</v>
+        <v>153500</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -909,13 +909,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>29800</v>
+        <v>30700</v>
       </c>
       <c r="E15" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="F15" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>898400</v>
+        <v>928200</v>
       </c>
       <c r="E17" s="3">
-        <v>459100</v>
+        <v>474400</v>
       </c>
       <c r="F17" s="3">
-        <v>271300</v>
+        <v>280300</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-146400</v>
+        <v>-151300</v>
       </c>
       <c r="E18" s="3">
-        <v>-17700</v>
+        <v>-18300</v>
       </c>
       <c r="F18" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1024,10 +1024,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-15500</v>
+        <v>-16000</v>
       </c>
       <c r="E20" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="F20" s="3">
         <v>-2000</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-130000</v>
+        <v>-134000</v>
       </c>
       <c r="E21" s="3">
-        <v>-12100</v>
+        <v>-12400</v>
       </c>
       <c r="F21" s="3">
-        <v>9400</v>
+        <v>9700</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1084,10 +1084,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="E22" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="3">
         <v>700</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-165600</v>
+        <v>-171100</v>
       </c>
       <c r="E23" s="3">
-        <v>-25400</v>
+        <v>-26200</v>
       </c>
       <c r="F23" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1144,13 +1144,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="E24" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="F24" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-176700</v>
+        <v>-182500</v>
       </c>
       <c r="E26" s="3">
-        <v>-28600</v>
+        <v>-29500</v>
       </c>
       <c r="F26" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-176700</v>
+        <v>-182500</v>
       </c>
       <c r="E27" s="3">
-        <v>-28600</v>
+        <v>-29500</v>
       </c>
       <c r="F27" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1384,10 +1384,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="E32" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="F32" s="3">
         <v>2000</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-176700</v>
+        <v>-182500</v>
       </c>
       <c r="E33" s="3">
-        <v>-28600</v>
+        <v>-29500</v>
       </c>
       <c r="F33" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-176700</v>
+        <v>-182500</v>
       </c>
       <c r="E35" s="3">
-        <v>-28600</v>
+        <v>-29500</v>
       </c>
       <c r="F35" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>677800</v>
+        <v>700300</v>
       </c>
       <c r="E41" s="3">
-        <v>94100</v>
+        <v>97200</v>
       </c>
       <c r="F41" s="3">
-        <v>12400</v>
+        <v>12800</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>31200</v>
+        <v>32200</v>
       </c>
       <c r="E42" s="3">
-        <v>17800</v>
+        <v>18400</v>
       </c>
       <c r="F42" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>131000</v>
+        <v>135300</v>
       </c>
       <c r="E43" s="3">
-        <v>66500</v>
+        <v>68700</v>
       </c>
       <c r="F43" s="3">
-        <v>46800</v>
+        <v>48400</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1657,13 +1657,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>139200</v>
+        <v>143900</v>
       </c>
       <c r="E44" s="3">
-        <v>106800</v>
+        <v>110300</v>
       </c>
       <c r="F44" s="3">
-        <v>46200</v>
+        <v>47800</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21900</v>
+        <v>22600</v>
       </c>
       <c r="E45" s="3">
-        <v>7800</v>
+        <v>8100</v>
       </c>
       <c r="F45" s="3">
-        <v>13100</v>
+        <v>13600</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1001000</v>
+        <v>1034300</v>
       </c>
       <c r="E46" s="3">
-        <v>292900</v>
+        <v>302700</v>
       </c>
       <c r="F46" s="3">
-        <v>124700</v>
+        <v>128800</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>220300</v>
+        <v>227600</v>
       </c>
       <c r="E48" s="3">
-        <v>41200</v>
+        <v>42600</v>
       </c>
       <c r="F48" s="3">
-        <v>16300</v>
+        <v>16800</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>59600</v>
+        <v>61600</v>
       </c>
       <c r="E49" s="3">
-        <v>56700</v>
+        <v>58600</v>
       </c>
       <c r="F49" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1900,10 +1900,10 @@
         <v>2300</v>
       </c>
       <c r="E52" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="F52" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1283200</v>
+        <v>1325900</v>
       </c>
       <c r="E54" s="3">
-        <v>397000</v>
+        <v>410200</v>
       </c>
       <c r="F54" s="3">
-        <v>149100</v>
+        <v>154000</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>47700</v>
+        <v>49300</v>
       </c>
       <c r="E57" s="3">
-        <v>43100</v>
+        <v>44500</v>
       </c>
       <c r="F57" s="3">
-        <v>17000</v>
+        <v>17600</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14100</v>
+        <v>14600</v>
       </c>
       <c r="E58" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="F58" s="3">
-        <v>17500</v>
+        <v>18100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>150900</v>
+        <v>156000</v>
       </c>
       <c r="E59" s="3">
-        <v>41800</v>
+        <v>43200</v>
       </c>
       <c r="F59" s="3">
-        <v>33200</v>
+        <v>34300</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>212800</v>
+        <v>219800</v>
       </c>
       <c r="E60" s="3">
-        <v>89600</v>
+        <v>92600</v>
       </c>
       <c r="F60" s="3">
-        <v>67800</v>
+        <v>70000</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2135,13 +2135,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>173500</v>
+        <v>179300</v>
       </c>
       <c r="E61" s="3">
-        <v>19900</v>
+        <v>20600</v>
       </c>
       <c r="F61" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16500</v>
+        <v>17100</v>
       </c>
       <c r="E62" s="3">
-        <v>33100</v>
+        <v>34200</v>
       </c>
       <c r="F62" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>402800</v>
+        <v>416200</v>
       </c>
       <c r="E66" s="3">
-        <v>142700</v>
+        <v>147400</v>
       </c>
       <c r="F66" s="3">
-        <v>82200</v>
+        <v>84900</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>97500</v>
+        <v>100700</v>
       </c>
       <c r="E72" s="3">
-        <v>75400</v>
+        <v>77900</v>
       </c>
       <c r="F72" s="3">
-        <v>23400</v>
+        <v>24200</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>880400</v>
+        <v>909700</v>
       </c>
       <c r="E76" s="3">
-        <v>254400</v>
+        <v>262800</v>
       </c>
       <c r="F76" s="3">
-        <v>66800</v>
+        <v>69100</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-176700</v>
+        <v>-182500</v>
       </c>
       <c r="E81" s="3">
-        <v>-28600</v>
+        <v>-29500</v>
       </c>
       <c r="F81" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>32600</v>
+        <v>33700</v>
       </c>
       <c r="E83" s="3">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="F83" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>17600</v>
+        <v>18200</v>
       </c>
       <c r="E89" s="3">
-        <v>-15300</v>
+        <v>-15800</v>
       </c>
       <c r="F89" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-25600</v>
+        <v>-26400</v>
       </c>
       <c r="E91" s="3">
-        <v>-11400</v>
+        <v>-11800</v>
       </c>
       <c r="F91" s="3">
-        <v>-7700</v>
+        <v>-8000</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-37800</v>
+        <v>-39100</v>
       </c>
       <c r="E94" s="3">
-        <v>-19300</v>
+        <v>-20000</v>
       </c>
       <c r="F94" s="3">
-        <v>-9900</v>
+        <v>-10200</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,10 +3186,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>618400</v>
+        <v>638900</v>
       </c>
       <c r="E100" s="3">
-        <v>129500</v>
+        <v>133800</v>
       </c>
       <c r="F100" s="3">
         <v>-700</v>
@@ -3216,7 +3216,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-14400</v>
+        <v>-14900</v>
       </c>
       <c r="E101" s="3">
         <v>-1000</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>583700</v>
+        <v>603100</v>
       </c>
       <c r="E102" s="3">
-        <v>93900</v>
+        <v>97000</v>
       </c>
       <c r="F102" s="3">
-        <v>-16200</v>
+        <v>-16800</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ONON_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ONON_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
   <si>
     <t>ONON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,23 +708,26 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>777000</v>
+        <v>1349800</v>
       </c>
       <c r="E8" s="3">
-        <v>456000</v>
+        <v>800300</v>
       </c>
       <c r="F8" s="3">
-        <v>286400</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>469700</v>
+      </c>
+      <c r="G8" s="3">
+        <v>295000</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -738,23 +741,26 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>315600</v>
+        <v>593300</v>
       </c>
       <c r="E9" s="3">
-        <v>208200</v>
+        <v>325100</v>
       </c>
       <c r="F9" s="3">
-        <v>133000</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>214500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>137000</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -768,23 +774,26 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>461400</v>
+        <v>756500</v>
       </c>
       <c r="E10" s="3">
-        <v>247800</v>
+        <v>475200</v>
       </c>
       <c r="F10" s="3">
-        <v>153500</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>255300</v>
+      </c>
+      <c r="G10" s="3">
+        <v>158100</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,23 +921,26 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>30700</v>
+        <v>44200</v>
       </c>
       <c r="E15" s="3">
-        <v>10400</v>
+        <v>31700</v>
       </c>
       <c r="F15" s="3">
-        <v>4000</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+        <v>10700</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4100</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -932,9 +954,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,22 +969,23 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>928200</v>
+        <v>1255800</v>
       </c>
       <c r="E17" s="3">
-        <v>474400</v>
+        <v>956100</v>
       </c>
       <c r="F17" s="3">
-        <v>280300</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>488600</v>
+      </c>
+      <c r="G17" s="3">
+        <v>288700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -973,23 +999,26 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-151300</v>
+        <v>94000</v>
       </c>
       <c r="E18" s="3">
-        <v>-18300</v>
+        <v>-155800</v>
       </c>
       <c r="F18" s="3">
-        <v>6100</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-18900</v>
+      </c>
+      <c r="G18" s="3">
+        <v>6300</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,22 +1050,23 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-16000</v>
+        <v>-1000</v>
       </c>
       <c r="E20" s="3">
-        <v>-6900</v>
+        <v>-16500</v>
       </c>
       <c r="F20" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+        <v>-7100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-2100</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1047,23 +1080,26 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-134000</v>
+        <v>144600</v>
       </c>
       <c r="E21" s="3">
-        <v>-12400</v>
+        <v>-137400</v>
       </c>
       <c r="F21" s="3">
-        <v>9700</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>-12500</v>
+      </c>
+      <c r="G21" s="3">
+        <v>10100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1077,24 +1113,27 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3800</v>
+        <v>7000</v>
       </c>
       <c r="E22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,23 +1146,26 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-171100</v>
+        <v>86000</v>
       </c>
       <c r="E23" s="3">
-        <v>-26200</v>
+        <v>-176300</v>
       </c>
       <c r="F23" s="3">
-        <v>3400</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>-27000</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3500</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1137,23 +1179,26 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11400</v>
+        <v>22300</v>
       </c>
       <c r="E24" s="3">
-        <v>3300</v>
+        <v>11800</v>
       </c>
       <c r="F24" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+        <v>3400</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5100</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,24 +1245,27 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-182500</v>
+        <v>63700</v>
       </c>
       <c r="E26" s="3">
-        <v>-29500</v>
+        <v>-188000</v>
       </c>
       <c r="F26" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1227,24 +1278,27 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-182500</v>
+        <v>63700</v>
       </c>
       <c r="E27" s="3">
-        <v>-29500</v>
+        <v>-188000</v>
       </c>
       <c r="F27" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,23 +1443,26 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>16000</v>
+        <v>1000</v>
       </c>
       <c r="E32" s="3">
-        <v>6900</v>
+        <v>16500</v>
       </c>
       <c r="F32" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+        <v>7100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2100</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1407,24 +1476,27 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-182500</v>
+        <v>63700</v>
       </c>
       <c r="E33" s="3">
-        <v>-29500</v>
+        <v>-188000</v>
       </c>
       <c r="F33" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,24 +1542,27 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-182500</v>
+        <v>63700</v>
       </c>
       <c r="E35" s="3">
-        <v>-29500</v>
+        <v>-188000</v>
       </c>
       <c r="F35" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1497,29 +1575,32 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,22 +1646,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>700300</v>
+        <v>409800</v>
       </c>
       <c r="E41" s="3">
-        <v>97200</v>
+        <v>721300</v>
       </c>
       <c r="F41" s="3">
-        <v>12800</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>100100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>13200</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1590,23 +1676,26 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>32200</v>
+        <v>36700</v>
       </c>
       <c r="E42" s="3">
-        <v>18400</v>
+        <v>33200</v>
       </c>
       <c r="F42" s="3">
-        <v>6400</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>18900</v>
+      </c>
+      <c r="G42" s="3">
+        <v>6600</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1620,23 +1709,26 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>135300</v>
+        <v>236700</v>
       </c>
       <c r="E43" s="3">
-        <v>68700</v>
+        <v>139400</v>
       </c>
       <c r="F43" s="3">
-        <v>48400</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>70800</v>
+      </c>
+      <c r="G43" s="3">
+        <v>49800</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1650,23 +1742,26 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>143900</v>
+        <v>436900</v>
       </c>
       <c r="E44" s="3">
-        <v>110300</v>
+        <v>148200</v>
       </c>
       <c r="F44" s="3">
-        <v>47800</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+        <v>113600</v>
+      </c>
+      <c r="G44" s="3">
+        <v>49200</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1680,23 +1775,26 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>22600</v>
+        <v>41300</v>
       </c>
       <c r="E45" s="3">
-        <v>8100</v>
+        <v>23300</v>
       </c>
       <c r="F45" s="3">
-        <v>13600</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>8300</v>
+      </c>
+      <c r="G45" s="3">
+        <v>14000</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1710,23 +1808,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1034300</v>
+        <v>1161400</v>
       </c>
       <c r="E46" s="3">
-        <v>302700</v>
+        <v>1065400</v>
       </c>
       <c r="F46" s="3">
-        <v>128800</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>311800</v>
+      </c>
+      <c r="G46" s="3">
+        <v>132700</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1740,9 +1841,12 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1770,23 +1874,26 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>227600</v>
+        <v>252700</v>
       </c>
       <c r="E48" s="3">
-        <v>42600</v>
+        <v>234500</v>
       </c>
       <c r="F48" s="3">
-        <v>16800</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>43900</v>
+      </c>
+      <c r="G48" s="3">
+        <v>17400</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1800,23 +1907,26 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>61600</v>
+        <v>77600</v>
       </c>
       <c r="E49" s="3">
-        <v>58600</v>
+        <v>63500</v>
       </c>
       <c r="F49" s="3">
-        <v>6300</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+        <v>60400</v>
+      </c>
+      <c r="G49" s="3">
+        <v>6500</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,24 +2006,27 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2300</v>
+        <v>35100</v>
       </c>
       <c r="E52" s="3">
-        <v>6300</v>
+        <v>2400</v>
       </c>
       <c r="F52" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G52" s="3">
         <v>2000</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,23 +2072,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1325900</v>
+        <v>1526800</v>
       </c>
       <c r="E54" s="3">
-        <v>410200</v>
+        <v>1365700</v>
       </c>
       <c r="F54" s="3">
-        <v>154000</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>422500</v>
+      </c>
+      <c r="G54" s="3">
+        <v>158600</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,22 +2138,23 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>49300</v>
+        <v>122600</v>
       </c>
       <c r="E57" s="3">
-        <v>44500</v>
+        <v>50700</v>
       </c>
       <c r="F57" s="3">
-        <v>17600</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>45900</v>
+      </c>
+      <c r="G57" s="3">
+        <v>18100</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2038,23 +2168,26 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14600</v>
+        <v>23900</v>
       </c>
       <c r="E58" s="3">
-        <v>4900</v>
+        <v>15100</v>
       </c>
       <c r="F58" s="3">
-        <v>18100</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>5000</v>
+      </c>
+      <c r="G58" s="3">
+        <v>18600</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2068,23 +2201,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>156000</v>
+        <v>121600</v>
       </c>
       <c r="E59" s="3">
-        <v>43200</v>
+        <v>160600</v>
       </c>
       <c r="F59" s="3">
-        <v>34300</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>44500</v>
+      </c>
+      <c r="G59" s="3">
+        <v>35300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2098,23 +2234,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>219800</v>
+        <v>268100</v>
       </c>
       <c r="E60" s="3">
-        <v>92600</v>
+        <v>226400</v>
       </c>
       <c r="F60" s="3">
-        <v>70000</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>95400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>72100</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2128,23 +2267,26 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>179300</v>
+        <v>153300</v>
       </c>
       <c r="E61" s="3">
-        <v>20600</v>
+        <v>184700</v>
       </c>
       <c r="F61" s="3">
-        <v>3600</v>
+        <v>21200</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2158,23 +2300,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17100</v>
+        <v>34700</v>
       </c>
       <c r="E62" s="3">
-        <v>34200</v>
+        <v>17600</v>
       </c>
       <c r="F62" s="3">
-        <v>11400</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>35300</v>
+      </c>
+      <c r="G62" s="3">
+        <v>11700</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,23 +2432,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>416200</v>
+        <v>456000</v>
       </c>
       <c r="E66" s="3">
-        <v>147400</v>
+        <v>428700</v>
       </c>
       <c r="F66" s="3">
-        <v>84900</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>151800</v>
+      </c>
+      <c r="G66" s="3">
+        <v>87500</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,23 +2612,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>100700</v>
+        <v>234800</v>
       </c>
       <c r="E72" s="3">
-        <v>77900</v>
+        <v>103800</v>
       </c>
       <c r="F72" s="3">
-        <v>24200</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>80300</v>
+      </c>
+      <c r="G72" s="3">
+        <v>24900</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,23 +2744,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>909700</v>
+        <v>1070800</v>
       </c>
       <c r="E76" s="3">
-        <v>262800</v>
+        <v>937000</v>
       </c>
       <c r="F76" s="3">
-        <v>69100</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>270700</v>
+      </c>
+      <c r="G76" s="3">
+        <v>71100</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,29 +2810,32 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,24 +2848,27 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-182500</v>
+        <v>63700</v>
       </c>
       <c r="E81" s="3">
-        <v>-29500</v>
+        <v>-188000</v>
       </c>
       <c r="F81" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,22 +2899,23 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>33700</v>
+        <v>51200</v>
       </c>
       <c r="E83" s="3">
-        <v>13000</v>
+        <v>34700</v>
       </c>
       <c r="F83" s="3">
-        <v>5700</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>13400</v>
+      </c>
+      <c r="G83" s="3">
+        <v>5900</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,23 +3094,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>18200</v>
+        <v>-250700</v>
       </c>
       <c r="E89" s="3">
-        <v>-15800</v>
+        <v>18700</v>
       </c>
       <c r="F89" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>-16300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-5800</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,22 +3145,23 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-26400</v>
+        <v>-66600</v>
       </c>
       <c r="E91" s="3">
-        <v>-11800</v>
+        <v>-27200</v>
       </c>
       <c r="F91" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-12100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-8200</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,23 +3241,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-39100</v>
+        <v>-91600</v>
       </c>
       <c r="E94" s="3">
-        <v>-20000</v>
+        <v>-40300</v>
       </c>
       <c r="F94" s="3">
-        <v>-10200</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-20600</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-10500</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,23 +3421,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>638900</v>
+        <v>7000</v>
       </c>
       <c r="E100" s="3">
-        <v>133800</v>
+        <v>658100</v>
       </c>
       <c r="F100" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>137800</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-800</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3209,24 +3454,27 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-14900</v>
+        <v>23700</v>
       </c>
       <c r="E101" s="3">
-        <v>-1000</v>
+        <v>-15300</v>
       </c>
       <c r="F101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3239,23 +3487,26 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>603100</v>
+        <v>-311600</v>
       </c>
       <c r="E102" s="3">
-        <v>97000</v>
+        <v>621300</v>
       </c>
       <c r="F102" s="3">
-        <v>-16800</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>99900</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-17300</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ONON_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ONON_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1349800</v>
+        <v>1383900</v>
       </c>
       <c r="E8" s="3">
-        <v>800300</v>
+        <v>820500</v>
       </c>
       <c r="F8" s="3">
-        <v>469700</v>
+        <v>481600</v>
       </c>
       <c r="G8" s="3">
-        <v>295000</v>
+        <v>302500</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>593300</v>
+        <v>608300</v>
       </c>
       <c r="E9" s="3">
-        <v>325100</v>
+        <v>333300</v>
       </c>
       <c r="F9" s="3">
-        <v>214500</v>
+        <v>219900</v>
       </c>
       <c r="G9" s="3">
-        <v>137000</v>
+        <v>140400</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>756500</v>
+        <v>775600</v>
       </c>
       <c r="E10" s="3">
-        <v>475200</v>
+        <v>487200</v>
       </c>
       <c r="F10" s="3">
-        <v>255300</v>
+        <v>261700</v>
       </c>
       <c r="G10" s="3">
-        <v>158100</v>
+        <v>162100</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -931,16 +931,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>44200</v>
+        <v>45300</v>
       </c>
       <c r="E15" s="3">
-        <v>31700</v>
+        <v>32500</v>
       </c>
       <c r="F15" s="3">
-        <v>10700</v>
+        <v>11000</v>
       </c>
       <c r="G15" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1255800</v>
+        <v>1287500</v>
       </c>
       <c r="E17" s="3">
-        <v>956100</v>
+        <v>980300</v>
       </c>
       <c r="F17" s="3">
-        <v>488600</v>
+        <v>500900</v>
       </c>
       <c r="G17" s="3">
-        <v>288700</v>
+        <v>296000</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>94000</v>
+        <v>96400</v>
       </c>
       <c r="E18" s="3">
-        <v>-155800</v>
+        <v>-159800</v>
       </c>
       <c r="F18" s="3">
-        <v>-18900</v>
+        <v>-19400</v>
       </c>
       <c r="G18" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1060,13 +1060,13 @@
         <v>-1000</v>
       </c>
       <c r="E20" s="3">
-        <v>-16500</v>
+        <v>-16900</v>
       </c>
       <c r="F20" s="3">
-        <v>-7100</v>
+        <v>-7300</v>
       </c>
       <c r="G20" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>144600</v>
+        <v>147900</v>
       </c>
       <c r="E21" s="3">
-        <v>-137400</v>
+        <v>-141100</v>
       </c>
       <c r="F21" s="3">
-        <v>-12500</v>
+        <v>-13000</v>
       </c>
       <c r="G21" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1123,10 +1123,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="E22" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="F22" s="3">
         <v>1000</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>86000</v>
+        <v>88200</v>
       </c>
       <c r="E23" s="3">
-        <v>-176300</v>
+        <v>-180700</v>
       </c>
       <c r="F23" s="3">
-        <v>-27000</v>
+        <v>-27700</v>
       </c>
       <c r="G23" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1189,16 +1189,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22300</v>
+        <v>22900</v>
       </c>
       <c r="E24" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="F24" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="G24" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>63700</v>
+        <v>65300</v>
       </c>
       <c r="E26" s="3">
-        <v>-188000</v>
+        <v>-192800</v>
       </c>
       <c r="F26" s="3">
-        <v>-30400</v>
+        <v>-31200</v>
       </c>
       <c r="G26" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>63700</v>
+        <v>65300</v>
       </c>
       <c r="E27" s="3">
-        <v>-188000</v>
+        <v>-192800</v>
       </c>
       <c r="F27" s="3">
-        <v>-30400</v>
+        <v>-31200</v>
       </c>
       <c r="G27" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1456,13 +1456,13 @@
         <v>1000</v>
       </c>
       <c r="E32" s="3">
-        <v>16500</v>
+        <v>16900</v>
       </c>
       <c r="F32" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="G32" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>63700</v>
+        <v>65300</v>
       </c>
       <c r="E33" s="3">
-        <v>-188000</v>
+        <v>-192800</v>
       </c>
       <c r="F33" s="3">
-        <v>-30400</v>
+        <v>-31200</v>
       </c>
       <c r="G33" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>63700</v>
+        <v>65300</v>
       </c>
       <c r="E35" s="3">
-        <v>-188000</v>
+        <v>-192800</v>
       </c>
       <c r="F35" s="3">
-        <v>-30400</v>
+        <v>-31200</v>
       </c>
       <c r="G35" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>409800</v>
+        <v>420100</v>
       </c>
       <c r="E41" s="3">
-        <v>721300</v>
+        <v>739500</v>
       </c>
       <c r="F41" s="3">
-        <v>100100</v>
+        <v>102600</v>
       </c>
       <c r="G41" s="3">
-        <v>13200</v>
+        <v>13500</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>36700</v>
+        <v>37600</v>
       </c>
       <c r="E42" s="3">
-        <v>33200</v>
+        <v>34000</v>
       </c>
       <c r="F42" s="3">
-        <v>18900</v>
+        <v>19400</v>
       </c>
       <c r="G42" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>236700</v>
+        <v>242700</v>
       </c>
       <c r="E43" s="3">
-        <v>139400</v>
+        <v>142900</v>
       </c>
       <c r="F43" s="3">
-        <v>70800</v>
+        <v>72600</v>
       </c>
       <c r="G43" s="3">
-        <v>49800</v>
+        <v>51100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1752,16 +1752,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>436900</v>
+        <v>448000</v>
       </c>
       <c r="E44" s="3">
-        <v>148200</v>
+        <v>151900</v>
       </c>
       <c r="F44" s="3">
-        <v>113600</v>
+        <v>116500</v>
       </c>
       <c r="G44" s="3">
-        <v>49200</v>
+        <v>50400</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>41300</v>
+        <v>42400</v>
       </c>
       <c r="E45" s="3">
-        <v>23300</v>
+        <v>23900</v>
       </c>
       <c r="F45" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="G45" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1161400</v>
+        <v>1190700</v>
       </c>
       <c r="E46" s="3">
-        <v>1065400</v>
+        <v>1092300</v>
       </c>
       <c r="F46" s="3">
-        <v>311800</v>
+        <v>319600</v>
       </c>
       <c r="G46" s="3">
-        <v>132700</v>
+        <v>136100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>252700</v>
+        <v>259100</v>
       </c>
       <c r="E48" s="3">
-        <v>234500</v>
+        <v>240400</v>
       </c>
       <c r="F48" s="3">
-        <v>43900</v>
+        <v>45000</v>
       </c>
       <c r="G48" s="3">
-        <v>17400</v>
+        <v>17800</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,16 +1917,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>77600</v>
+        <v>79600</v>
       </c>
       <c r="E49" s="3">
-        <v>63500</v>
+        <v>65100</v>
       </c>
       <c r="F49" s="3">
-        <v>60400</v>
+        <v>61900</v>
       </c>
       <c r="G49" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>35100</v>
+        <v>36000</v>
       </c>
       <c r="E52" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F52" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="G52" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1526800</v>
+        <v>1565400</v>
       </c>
       <c r="E54" s="3">
-        <v>1365700</v>
+        <v>1400200</v>
       </c>
       <c r="F54" s="3">
-        <v>422500</v>
+        <v>433200</v>
       </c>
       <c r="G54" s="3">
-        <v>158600</v>
+        <v>162600</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>122600</v>
+        <v>125700</v>
       </c>
       <c r="E57" s="3">
-        <v>50700</v>
+        <v>52000</v>
       </c>
       <c r="F57" s="3">
-        <v>45900</v>
+        <v>47000</v>
       </c>
       <c r="G57" s="3">
-        <v>18100</v>
+        <v>18600</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2178,16 +2178,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>23900</v>
+        <v>24500</v>
       </c>
       <c r="E58" s="3">
-        <v>15100</v>
+        <v>15400</v>
       </c>
       <c r="F58" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="G58" s="3">
-        <v>18600</v>
+        <v>19100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>121600</v>
+        <v>124700</v>
       </c>
       <c r="E59" s="3">
-        <v>160600</v>
+        <v>164700</v>
       </c>
       <c r="F59" s="3">
-        <v>44500</v>
+        <v>45600</v>
       </c>
       <c r="G59" s="3">
-        <v>35300</v>
+        <v>36200</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>268100</v>
+        <v>274800</v>
       </c>
       <c r="E60" s="3">
-        <v>226400</v>
+        <v>232100</v>
       </c>
       <c r="F60" s="3">
-        <v>95400</v>
+        <v>97800</v>
       </c>
       <c r="G60" s="3">
-        <v>72100</v>
+        <v>73900</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>153300</v>
+        <v>157200</v>
       </c>
       <c r="E61" s="3">
-        <v>184700</v>
+        <v>189400</v>
       </c>
       <c r="F61" s="3">
-        <v>21200</v>
+        <v>21700</v>
       </c>
       <c r="G61" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>34700</v>
+        <v>35600</v>
       </c>
       <c r="E62" s="3">
-        <v>17600</v>
+        <v>18000</v>
       </c>
       <c r="F62" s="3">
-        <v>35300</v>
+        <v>36200</v>
       </c>
       <c r="G62" s="3">
-        <v>11700</v>
+        <v>12000</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>456000</v>
+        <v>467600</v>
       </c>
       <c r="E66" s="3">
-        <v>428700</v>
+        <v>439500</v>
       </c>
       <c r="F66" s="3">
-        <v>151800</v>
+        <v>155700</v>
       </c>
       <c r="G66" s="3">
-        <v>87500</v>
+        <v>89700</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>234800</v>
+        <v>240700</v>
       </c>
       <c r="E72" s="3">
-        <v>103800</v>
+        <v>106400</v>
       </c>
       <c r="F72" s="3">
-        <v>80300</v>
+        <v>82300</v>
       </c>
       <c r="G72" s="3">
-        <v>24900</v>
+        <v>25500</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1070800</v>
+        <v>1097800</v>
       </c>
       <c r="E76" s="3">
-        <v>937000</v>
+        <v>960700</v>
       </c>
       <c r="F76" s="3">
-        <v>270700</v>
+        <v>277500</v>
       </c>
       <c r="G76" s="3">
-        <v>71100</v>
+        <v>72900</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>63700</v>
+        <v>65300</v>
       </c>
       <c r="E81" s="3">
-        <v>-188000</v>
+        <v>-192800</v>
       </c>
       <c r="F81" s="3">
-        <v>-30400</v>
+        <v>-31200</v>
       </c>
       <c r="G81" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,16 +2906,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>51200</v>
+        <v>52500</v>
       </c>
       <c r="E83" s="3">
-        <v>34700</v>
+        <v>35600</v>
       </c>
       <c r="F83" s="3">
-        <v>13400</v>
+        <v>13700</v>
       </c>
       <c r="G83" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-250700</v>
+        <v>-257000</v>
       </c>
       <c r="E89" s="3">
-        <v>18700</v>
+        <v>19200</v>
       </c>
       <c r="F89" s="3">
-        <v>-16300</v>
+        <v>-16700</v>
       </c>
       <c r="G89" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-66600</v>
+        <v>-68300</v>
       </c>
       <c r="E91" s="3">
-        <v>-27200</v>
+        <v>-27900</v>
       </c>
       <c r="F91" s="3">
-        <v>-12100</v>
+        <v>-12400</v>
       </c>
       <c r="G91" s="3">
-        <v>-8200</v>
+        <v>-8400</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-91600</v>
+        <v>-93900</v>
       </c>
       <c r="E94" s="3">
-        <v>-40300</v>
+        <v>-41300</v>
       </c>
       <c r="F94" s="3">
-        <v>-20600</v>
+        <v>-21100</v>
       </c>
       <c r="G94" s="3">
-        <v>-10500</v>
+        <v>-10800</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,13 +3431,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="E100" s="3">
-        <v>658100</v>
+        <v>674700</v>
       </c>
       <c r="F100" s="3">
-        <v>137800</v>
+        <v>141300</v>
       </c>
       <c r="G100" s="3">
         <v>-800</v>
@@ -3464,10 +3464,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>23700</v>
+        <v>24300</v>
       </c>
       <c r="E101" s="3">
-        <v>-15300</v>
+        <v>-15700</v>
       </c>
       <c r="F101" s="3">
         <v>-1100</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-311600</v>
+        <v>-319400</v>
       </c>
       <c r="E102" s="3">
-        <v>621300</v>
+        <v>636900</v>
       </c>
       <c r="F102" s="3">
-        <v>99900</v>
+        <v>102500</v>
       </c>
       <c r="G102" s="3">
-        <v>-17300</v>
+        <v>-17700</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/ONON_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ONON_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1383900</v>
+        <v>1375500</v>
       </c>
       <c r="E8" s="3">
-        <v>820500</v>
+        <v>815500</v>
       </c>
       <c r="F8" s="3">
-        <v>481600</v>
+        <v>478700</v>
       </c>
       <c r="G8" s="3">
-        <v>302500</v>
+        <v>300600</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>608300</v>
+        <v>604600</v>
       </c>
       <c r="E9" s="3">
-        <v>333300</v>
+        <v>331200</v>
       </c>
       <c r="F9" s="3">
-        <v>219900</v>
+        <v>218600</v>
       </c>
       <c r="G9" s="3">
-        <v>140400</v>
+        <v>139600</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>775600</v>
+        <v>770800</v>
       </c>
       <c r="E10" s="3">
-        <v>487200</v>
+        <v>484300</v>
       </c>
       <c r="F10" s="3">
-        <v>261700</v>
+        <v>260100</v>
       </c>
       <c r="G10" s="3">
-        <v>162100</v>
+        <v>161100</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -931,13 +931,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>45300</v>
+        <v>45000</v>
       </c>
       <c r="E15" s="3">
-        <v>32500</v>
+        <v>32300</v>
       </c>
       <c r="F15" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="G15" s="3">
         <v>4200</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1287500</v>
+        <v>1279700</v>
       </c>
       <c r="E17" s="3">
-        <v>980300</v>
+        <v>974300</v>
       </c>
       <c r="F17" s="3">
-        <v>500900</v>
+        <v>497900</v>
       </c>
       <c r="G17" s="3">
-        <v>296000</v>
+        <v>294200</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,13 +1009,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>96400</v>
+        <v>95800</v>
       </c>
       <c r="E18" s="3">
-        <v>-159800</v>
+        <v>-158800</v>
       </c>
       <c r="F18" s="3">
-        <v>-19400</v>
+        <v>-19200</v>
       </c>
       <c r="G18" s="3">
         <v>6400</v>
@@ -1060,13 +1060,13 @@
         <v>-1000</v>
       </c>
       <c r="E20" s="3">
-        <v>-16900</v>
+        <v>-16800</v>
       </c>
       <c r="F20" s="3">
-        <v>-7300</v>
+        <v>-7200</v>
       </c>
       <c r="G20" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1090,13 +1090,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>147900</v>
+        <v>147000</v>
       </c>
       <c r="E21" s="3">
-        <v>-141100</v>
+        <v>-140300</v>
       </c>
       <c r="F21" s="3">
-        <v>-13000</v>
+        <v>-12900</v>
       </c>
       <c r="G21" s="3">
         <v>10300</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>88200</v>
+        <v>87700</v>
       </c>
       <c r="E23" s="3">
-        <v>-180700</v>
+        <v>-179600</v>
       </c>
       <c r="F23" s="3">
-        <v>-27700</v>
+        <v>-27500</v>
       </c>
       <c r="G23" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1189,7 +1189,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22900</v>
+        <v>22700</v>
       </c>
       <c r="E24" s="3">
         <v>12000</v>
@@ -1255,13 +1255,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>65300</v>
+        <v>64900</v>
       </c>
       <c r="E26" s="3">
-        <v>-192800</v>
+        <v>-191600</v>
       </c>
       <c r="F26" s="3">
-        <v>-31200</v>
+        <v>-31000</v>
       </c>
       <c r="G26" s="3">
         <v>-1700</v>
@@ -1288,13 +1288,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>65300</v>
+        <v>64900</v>
       </c>
       <c r="E27" s="3">
-        <v>-192800</v>
+        <v>-191600</v>
       </c>
       <c r="F27" s="3">
-        <v>-31200</v>
+        <v>-31000</v>
       </c>
       <c r="G27" s="3">
         <v>-1700</v>
@@ -1456,13 +1456,13 @@
         <v>1000</v>
       </c>
       <c r="E32" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="F32" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="G32" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1486,13 +1486,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>65300</v>
+        <v>64900</v>
       </c>
       <c r="E33" s="3">
-        <v>-192800</v>
+        <v>-191600</v>
       </c>
       <c r="F33" s="3">
-        <v>-31200</v>
+        <v>-31000</v>
       </c>
       <c r="G33" s="3">
         <v>-1700</v>
@@ -1552,13 +1552,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>65300</v>
+        <v>64900</v>
       </c>
       <c r="E35" s="3">
-        <v>-192800</v>
+        <v>-191600</v>
       </c>
       <c r="F35" s="3">
-        <v>-31200</v>
+        <v>-31000</v>
       </c>
       <c r="G35" s="3">
         <v>-1700</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>420100</v>
+        <v>417600</v>
       </c>
       <c r="E41" s="3">
-        <v>739500</v>
+        <v>735000</v>
       </c>
       <c r="F41" s="3">
-        <v>102600</v>
+        <v>102000</v>
       </c>
       <c r="G41" s="3">
-        <v>13500</v>
+        <v>13400</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,13 +1686,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>37600</v>
+        <v>37400</v>
       </c>
       <c r="E42" s="3">
-        <v>34000</v>
+        <v>33800</v>
       </c>
       <c r="F42" s="3">
-        <v>19400</v>
+        <v>19300</v>
       </c>
       <c r="G42" s="3">
         <v>6700</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>242700</v>
+        <v>241200</v>
       </c>
       <c r="E43" s="3">
-        <v>142900</v>
+        <v>142000</v>
       </c>
       <c r="F43" s="3">
-        <v>72600</v>
+        <v>72100</v>
       </c>
       <c r="G43" s="3">
-        <v>51100</v>
+        <v>50800</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1752,16 +1752,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>448000</v>
+        <v>445200</v>
       </c>
       <c r="E44" s="3">
-        <v>151900</v>
+        <v>151000</v>
       </c>
       <c r="F44" s="3">
-        <v>116500</v>
+        <v>115800</v>
       </c>
       <c r="G44" s="3">
-        <v>50400</v>
+        <v>50100</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>42400</v>
+        <v>42100</v>
       </c>
       <c r="E45" s="3">
-        <v>23900</v>
+        <v>23700</v>
       </c>
       <c r="F45" s="3">
         <v>8500</v>
       </c>
       <c r="G45" s="3">
-        <v>14300</v>
+        <v>14200</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1190700</v>
+        <v>1183500</v>
       </c>
       <c r="E46" s="3">
-        <v>1092300</v>
+        <v>1085600</v>
       </c>
       <c r="F46" s="3">
-        <v>319600</v>
+        <v>317700</v>
       </c>
       <c r="G46" s="3">
-        <v>136100</v>
+        <v>135200</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>259100</v>
+        <v>257500</v>
       </c>
       <c r="E48" s="3">
-        <v>240400</v>
+        <v>238900</v>
       </c>
       <c r="F48" s="3">
-        <v>45000</v>
+        <v>44700</v>
       </c>
       <c r="G48" s="3">
-        <v>17800</v>
+        <v>17700</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,13 +1917,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>79600</v>
+        <v>79100</v>
       </c>
       <c r="E49" s="3">
-        <v>65100</v>
+        <v>64700</v>
       </c>
       <c r="F49" s="3">
-        <v>61900</v>
+        <v>61500</v>
       </c>
       <c r="G49" s="3">
         <v>6700</v>
@@ -2016,10 +2016,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>36000</v>
+        <v>35800</v>
       </c>
       <c r="E52" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F52" s="3">
         <v>6700</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1565400</v>
+        <v>1555900</v>
       </c>
       <c r="E54" s="3">
-        <v>1400200</v>
+        <v>1391700</v>
       </c>
       <c r="F54" s="3">
-        <v>433200</v>
+        <v>430600</v>
       </c>
       <c r="G54" s="3">
-        <v>162600</v>
+        <v>161700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>125700</v>
+        <v>124900</v>
       </c>
       <c r="E57" s="3">
-        <v>52000</v>
+        <v>51700</v>
       </c>
       <c r="F57" s="3">
-        <v>47000</v>
+        <v>46800</v>
       </c>
       <c r="G57" s="3">
-        <v>18600</v>
+        <v>18500</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2178,16 +2178,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>24500</v>
+        <v>24300</v>
       </c>
       <c r="E58" s="3">
-        <v>15400</v>
+        <v>15300</v>
       </c>
       <c r="F58" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="G58" s="3">
-        <v>19100</v>
+        <v>19000</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>124700</v>
+        <v>123900</v>
       </c>
       <c r="E59" s="3">
-        <v>164700</v>
+        <v>163700</v>
       </c>
       <c r="F59" s="3">
-        <v>45600</v>
+        <v>45300</v>
       </c>
       <c r="G59" s="3">
-        <v>36200</v>
+        <v>36000</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>274800</v>
+        <v>273200</v>
       </c>
       <c r="E60" s="3">
-        <v>232100</v>
+        <v>230700</v>
       </c>
       <c r="F60" s="3">
-        <v>97800</v>
+        <v>97200</v>
       </c>
       <c r="G60" s="3">
-        <v>73900</v>
+        <v>73500</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>157200</v>
+        <v>156200</v>
       </c>
       <c r="E61" s="3">
-        <v>189400</v>
+        <v>188200</v>
       </c>
       <c r="F61" s="3">
-        <v>21700</v>
+        <v>21600</v>
       </c>
       <c r="G61" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>35600</v>
+        <v>35300</v>
       </c>
       <c r="E62" s="3">
-        <v>18000</v>
+        <v>17900</v>
       </c>
       <c r="F62" s="3">
-        <v>36200</v>
+        <v>35900</v>
       </c>
       <c r="G62" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>467600</v>
+        <v>464700</v>
       </c>
       <c r="E66" s="3">
-        <v>439500</v>
+        <v>436900</v>
       </c>
       <c r="F66" s="3">
-        <v>155700</v>
+        <v>154700</v>
       </c>
       <c r="G66" s="3">
-        <v>89700</v>
+        <v>89200</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>240700</v>
+        <v>239300</v>
       </c>
       <c r="E72" s="3">
-        <v>106400</v>
+        <v>105700</v>
       </c>
       <c r="F72" s="3">
-        <v>82300</v>
+        <v>81800</v>
       </c>
       <c r="G72" s="3">
-        <v>25500</v>
+        <v>25400</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1097800</v>
+        <v>1091200</v>
       </c>
       <c r="E76" s="3">
-        <v>960700</v>
+        <v>954800</v>
       </c>
       <c r="F76" s="3">
-        <v>277500</v>
+        <v>275800</v>
       </c>
       <c r="G76" s="3">
-        <v>72900</v>
+        <v>72500</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,13 +2858,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>65300</v>
+        <v>64900</v>
       </c>
       <c r="E81" s="3">
-        <v>-192800</v>
+        <v>-191600</v>
       </c>
       <c r="F81" s="3">
-        <v>-31200</v>
+        <v>-31000</v>
       </c>
       <c r="G81" s="3">
         <v>-1700</v>
@@ -2906,13 +2906,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>52500</v>
+        <v>52200</v>
       </c>
       <c r="E83" s="3">
-        <v>35600</v>
+        <v>35400</v>
       </c>
       <c r="F83" s="3">
-        <v>13700</v>
+        <v>13600</v>
       </c>
       <c r="G83" s="3">
         <v>6000</v>
@@ -3104,13 +3104,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-257000</v>
+        <v>-255500</v>
       </c>
       <c r="E89" s="3">
-        <v>19200</v>
+        <v>19100</v>
       </c>
       <c r="F89" s="3">
-        <v>-16700</v>
+        <v>-16600</v>
       </c>
       <c r="G89" s="3">
         <v>-5900</v>
@@ -3152,10 +3152,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-68300</v>
+        <v>-67900</v>
       </c>
       <c r="E91" s="3">
-        <v>-27900</v>
+        <v>-27700</v>
       </c>
       <c r="F91" s="3">
         <v>-12400</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-93900</v>
+        <v>-93300</v>
       </c>
       <c r="E94" s="3">
-        <v>-41300</v>
+        <v>-41000</v>
       </c>
       <c r="F94" s="3">
-        <v>-21100</v>
+        <v>-21000</v>
       </c>
       <c r="G94" s="3">
-        <v>-10800</v>
+        <v>-10700</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3434,10 +3434,10 @@
         <v>7100</v>
       </c>
       <c r="E100" s="3">
-        <v>674700</v>
+        <v>670600</v>
       </c>
       <c r="F100" s="3">
-        <v>141300</v>
+        <v>140500</v>
       </c>
       <c r="G100" s="3">
         <v>-800</v>
@@ -3464,10 +3464,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>24300</v>
+        <v>24200</v>
       </c>
       <c r="E101" s="3">
-        <v>-15700</v>
+        <v>-15600</v>
       </c>
       <c r="F101" s="3">
         <v>-1100</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-319400</v>
+        <v>-317500</v>
       </c>
       <c r="E102" s="3">
-        <v>636900</v>
+        <v>633100</v>
       </c>
       <c r="F102" s="3">
-        <v>102500</v>
+        <v>101800</v>
       </c>
       <c r="G102" s="3">
-        <v>-17700</v>
+        <v>-17600</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
